--- a/StructureDefinition-cbs-cdc-address-use.xlsx
+++ b/StructureDefinition-cbs-cdc-address-use.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates the use of the address as per information surveillance program </t>
+    <t>Indicates the use of the address as per information surveillance program.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cbs-cdc-address-use.xlsx
+++ b/StructureDefinition-cbs-cdc-address-use.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$7</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -352,6 +355,9 @@
   </si>
   <si>
     <t>valueCoding</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>required</t>
@@ -489,6 +495,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -832,7 +853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
@@ -932,7 +953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -1132,7 +1153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1234,7 +1255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -1244,7 +1265,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>78</v>
@@ -1344,13 +1365,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1392,13 +1413,13 @@
         <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>76</v>
@@ -1435,6 +1456,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ7">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-cbs-cdc-address-use.xlsx
+++ b/StructureDefinition-cbs-cdc-address-use.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
